--- a/Code/Results/Cases/Case_4_211/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_211/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9990790801747941</v>
+        <v>1.031084389381527</v>
       </c>
       <c r="D2">
-        <v>1.017113734455469</v>
+        <v>1.034571803276337</v>
       </c>
       <c r="E2">
-        <v>1.016344314429637</v>
+        <v>1.044694289852873</v>
       </c>
       <c r="F2">
-        <v>1.02228349570467</v>
+        <v>1.052361646099872</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042647340160492</v>
+        <v>1.033315055699082</v>
       </c>
       <c r="J2">
-        <v>1.021287370728312</v>
+        <v>1.03622206645256</v>
       </c>
       <c r="K2">
-        <v>1.028339687250132</v>
+        <v>1.037370893434816</v>
       </c>
       <c r="L2">
-        <v>1.027580547917182</v>
+        <v>1.047464619512056</v>
       </c>
       <c r="M2">
-        <v>1.033440875445521</v>
+        <v>1.055110590174108</v>
       </c>
       <c r="N2">
-        <v>1.010878147219871</v>
+        <v>1.016037272982404</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.003526397563397</v>
+        <v>1.032031339333612</v>
       </c>
       <c r="D3">
-        <v>1.020306397996391</v>
+        <v>1.035265900666878</v>
       </c>
       <c r="E3">
-        <v>1.020449557952777</v>
+        <v>1.045627420191635</v>
       </c>
       <c r="F3">
-        <v>1.026702065236247</v>
+        <v>1.053368841898299</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043648120753949</v>
+        <v>1.03346621364555</v>
       </c>
       <c r="J3">
-        <v>1.023921388885469</v>
+        <v>1.036810755430282</v>
       </c>
       <c r="K3">
-        <v>1.030685883799907</v>
+        <v>1.037874512993238</v>
       </c>
       <c r="L3">
-        <v>1.030827301820055</v>
+        <v>1.048208721972835</v>
       </c>
       <c r="M3">
-        <v>1.037004318075338</v>
+        <v>1.055930117490809</v>
       </c>
       <c r="N3">
-        <v>1.011773328560292</v>
+        <v>1.016235114999597</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.006346860223929</v>
+        <v>1.032644579077515</v>
       </c>
       <c r="D4">
-        <v>1.022332907817491</v>
+        <v>1.035715206614894</v>
       </c>
       <c r="E4">
-        <v>1.023058565454188</v>
+        <v>1.046232075728952</v>
       </c>
       <c r="F4">
-        <v>1.029509824588617</v>
+        <v>1.054021480037969</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044272300406125</v>
+        <v>1.033562777048991</v>
       </c>
       <c r="J4">
-        <v>1.02558959437632</v>
+        <v>1.037191568911506</v>
       </c>
       <c r="K4">
-        <v>1.03216906392955</v>
+        <v>1.038199891739502</v>
       </c>
       <c r="L4">
-        <v>1.032886436753421</v>
+        <v>1.048690437003006</v>
       </c>
       <c r="M4">
-        <v>1.039264674483063</v>
+        <v>1.056460708583385</v>
       </c>
       <c r="N4">
-        <v>1.012339961526178</v>
+        <v>1.016363022542629</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.007519359950049</v>
+        <v>1.032902503819663</v>
       </c>
       <c r="D5">
-        <v>1.023175711258097</v>
+        <v>1.035904136199157</v>
       </c>
       <c r="E5">
-        <v>1.024144443614932</v>
+        <v>1.046486477049537</v>
       </c>
       <c r="F5">
-        <v>1.030678340065905</v>
+        <v>1.054296066977003</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044529216636382</v>
+        <v>1.033603073512884</v>
       </c>
       <c r="J5">
-        <v>1.026282508978056</v>
+        <v>1.037351636228308</v>
       </c>
       <c r="K5">
-        <v>1.032784450693292</v>
+        <v>1.038336561044863</v>
       </c>
       <c r="L5">
-        <v>1.033742423989597</v>
+        <v>1.048893004252951</v>
       </c>
       <c r="M5">
-        <v>1.040204401462563</v>
+        <v>1.056683840304656</v>
       </c>
       <c r="N5">
-        <v>1.012575241983586</v>
+        <v>1.016416768299908</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.007715466021217</v>
+        <v>1.032945817456509</v>
       </c>
       <c r="D6">
-        <v>1.023316693536368</v>
+        <v>1.035935860693274</v>
       </c>
       <c r="E6">
-        <v>1.024326136286483</v>
+        <v>1.046529204085442</v>
       </c>
       <c r="F6">
-        <v>1.030873855133229</v>
+        <v>1.054342184072811</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044572035261327</v>
+        <v>1.03360982193012</v>
       </c>
       <c r="J6">
-        <v>1.026398367269808</v>
+        <v>1.037378510645054</v>
       </c>
       <c r="K6">
-        <v>1.032887305823949</v>
+        <v>1.038359501361739</v>
       </c>
       <c r="L6">
-        <v>1.033885589731865</v>
+        <v>1.048927019336508</v>
       </c>
       <c r="M6">
-        <v>1.040361578296453</v>
+        <v>1.056721309247235</v>
       </c>
       <c r="N6">
-        <v>1.012614577111844</v>
+        <v>1.016425790880104</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.006362578556705</v>
+        <v>1.032648025015039</v>
       </c>
       <c r="D7">
-        <v>1.022344204954271</v>
+        <v>1.035717730940444</v>
       </c>
       <c r="E7">
-        <v>1.023073117528994</v>
+        <v>1.046235474251285</v>
       </c>
       <c r="F7">
-        <v>1.029525484425933</v>
+        <v>1.054025148227543</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044275754757163</v>
+        <v>1.033563316667006</v>
       </c>
       <c r="J7">
-        <v>1.025598885798307</v>
+        <v>1.03719370784475</v>
       </c>
       <c r="K7">
-        <v>1.03217731845525</v>
+        <v>1.038201718393891</v>
       </c>
       <c r="L7">
-        <v>1.032897912095291</v>
+        <v>1.048693143504653</v>
       </c>
       <c r="M7">
-        <v>1.039277272073666</v>
+        <v>1.056463689801875</v>
       </c>
       <c r="N7">
-        <v>1.012343116764225</v>
+        <v>1.016363740800944</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.000594224033457</v>
+        <v>1.031404311521107</v>
       </c>
       <c r="D8">
-        <v>1.018201032531395</v>
+        <v>1.034806338948401</v>
       </c>
       <c r="E8">
-        <v>1.017741747198055</v>
+        <v>1.04500946726468</v>
       </c>
       <c r="F8">
-        <v>1.023787668002092</v>
+        <v>1.052701842425667</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042990470995243</v>
+        <v>1.033366397892203</v>
       </c>
       <c r="J8">
-        <v>1.022185203146522</v>
+        <v>1.036421038398252</v>
       </c>
       <c r="K8">
-        <v>1.029139976597175</v>
+        <v>1.037541196290638</v>
       </c>
       <c r="L8">
-        <v>1.028686640626201</v>
+        <v>1.047716043966893</v>
       </c>
       <c r="M8">
-        <v>1.034654779507846</v>
+        <v>1.055387490049074</v>
       </c>
       <c r="N8">
-        <v>1.011183342294153</v>
+        <v>1.01610415706509</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9899682361304536</v>
+        <v>1.02921659709744</v>
       </c>
       <c r="D9">
-        <v>1.010585491648926</v>
+        <v>1.03320177774685</v>
       </c>
       <c r="E9">
-        <v>1.007966007035191</v>
+        <v>1.042855710389526</v>
       </c>
       <c r="F9">
-        <v>1.013263369282485</v>
+        <v>1.050377070773014</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040541180918774</v>
+        <v>1.033009882795446</v>
       </c>
       <c r="J9">
-        <v>1.015880284059885</v>
+        <v>1.035058711278959</v>
       </c>
       <c r="K9">
-        <v>1.023509129888204</v>
+        <v>1.036373510786681</v>
       </c>
       <c r="L9">
-        <v>1.020931150059654</v>
+        <v>1.045996084958714</v>
       </c>
       <c r="M9">
-        <v>1.026144861296495</v>
+        <v>1.053493451096408</v>
       </c>
       <c r="N9">
-        <v>1.009038983324629</v>
+        <v>1.015645915080208</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9825398710327493</v>
+        <v>1.027760773457715</v>
       </c>
       <c r="D10">
-        <v>1.005277107268148</v>
+        <v>1.032133111539323</v>
       </c>
       <c r="E10">
-        <v>1.001165160480352</v>
+        <v>1.041424398322164</v>
       </c>
       <c r="F10">
-        <v>1.005939083465495</v>
+        <v>1.048832042412607</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038776410223392</v>
+        <v>1.032765836730465</v>
       </c>
       <c r="J10">
-        <v>1.011463773351499</v>
+        <v>1.034150018242054</v>
       </c>
       <c r="K10">
-        <v>1.019551731141359</v>
+        <v>1.035592583182028</v>
       </c>
       <c r="L10">
-        <v>1.01551340941401</v>
+        <v>1.044850727457591</v>
       </c>
       <c r="M10">
-        <v>1.020201927550286</v>
+        <v>1.052232411508335</v>
       </c>
       <c r="N10">
-        <v>1.007535593567917</v>
+        <v>1.015339889097257</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9792333581497289</v>
+        <v>1.027131025493093</v>
       </c>
       <c r="D11">
-        <v>1.002918886379726</v>
+        <v>1.031670631184579</v>
       </c>
       <c r="E11">
-        <v>0.9981464229850472</v>
+        <v>1.040805712778696</v>
       </c>
       <c r="F11">
-        <v>1.002687261811543</v>
+        <v>1.048164185817913</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037979045635368</v>
+        <v>1.032658657740583</v>
       </c>
       <c r="J11">
-        <v>1.009496320168258</v>
+        <v>1.033756442344173</v>
       </c>
       <c r="K11">
-        <v>1.017785965914327</v>
+        <v>1.035253858983977</v>
       </c>
       <c r="L11">
-        <v>1.013103379915375</v>
+        <v>1.044355091709872</v>
       </c>
       <c r="M11">
-        <v>1.017558677625216</v>
+        <v>1.051686772837523</v>
       </c>
       <c r="N11">
-        <v>1.006865621107082</v>
+        <v>1.015207254904583</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9779908921908975</v>
+        <v>1.026897204998263</v>
       </c>
       <c r="D12">
-        <v>1.002033539441887</v>
+        <v>1.031498885668204</v>
       </c>
       <c r="E12">
-        <v>0.9970134163950329</v>
+        <v>1.040576069150937</v>
       </c>
       <c r="F12">
-        <v>1.001466652054536</v>
+        <v>1.04791628818866</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037677703865288</v>
+        <v>1.032618621001624</v>
       </c>
       <c r="J12">
-        <v>1.008756834398361</v>
+        <v>1.033610235675869</v>
       </c>
       <c r="K12">
-        <v>1.017121883472266</v>
+        <v>1.035127955928886</v>
       </c>
       <c r="L12">
-        <v>1.012198059187761</v>
+        <v>1.044171038324247</v>
       </c>
       <c r="M12">
-        <v>1.016565807165588</v>
+        <v>1.051484159437166</v>
       </c>
       <c r="N12">
-        <v>1.006613773721665</v>
+        <v>1.015157970540023</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.978258064362542</v>
+        <v>1.026947355933865</v>
       </c>
       <c r="D13">
-        <v>1.002223882000254</v>
+        <v>1.031535723820203</v>
       </c>
       <c r="E13">
-        <v>0.9972569903885218</v>
+        <v>1.040625321060734</v>
       </c>
       <c r="F13">
-        <v>1.001729064617716</v>
+        <v>1.047969455177351</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037742579388218</v>
+        <v>1.032627219223194</v>
       </c>
       <c r="J13">
-        <v>1.00891585659056</v>
+        <v>1.033641598170308</v>
       </c>
       <c r="K13">
-        <v>1.017264708438255</v>
+        <v>1.035154966429401</v>
       </c>
       <c r="L13">
-        <v>1.012392720234828</v>
+        <v>1.044210516221417</v>
       </c>
       <c r="M13">
-        <v>1.016779290434303</v>
+        <v>1.051527617917981</v>
       </c>
       <c r="N13">
-        <v>1.006667933422179</v>
+        <v>1.015168543017898</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9791309514214195</v>
+        <v>1.027111695856304</v>
       </c>
       <c r="D14">
-        <v>1.002845897680889</v>
+        <v>1.031656433817173</v>
       </c>
       <c r="E14">
-        <v>0.998053010902538</v>
+        <v>1.040786727017981</v>
       </c>
       <c r="F14">
-        <v>1.002586629696745</v>
+        <v>1.048143690965451</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037954243057088</v>
+        <v>1.03265535289245</v>
       </c>
       <c r="J14">
-        <v>1.009435373717117</v>
+        <v>1.033744357157621</v>
       </c>
       <c r="K14">
-        <v>1.017731242060138</v>
+        <v>1.035243453543148</v>
       </c>
       <c r="L14">
-        <v>1.013028755429023</v>
+        <v>1.044339876818812</v>
       </c>
       <c r="M14">
-        <v>1.017476835337354</v>
+        <v>1.051670023498312</v>
       </c>
       <c r="N14">
-        <v>1.006844865133962</v>
+        <v>1.015203181411262</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9796668500568377</v>
+        <v>1.02721296384314</v>
       </c>
       <c r="D15">
-        <v>1.003227883116008</v>
+        <v>1.031730812607777</v>
       </c>
       <c r="E15">
-        <v>0.9985418944813056</v>
+        <v>1.040886196286103</v>
       </c>
       <c r="F15">
-        <v>1.003113295209317</v>
+        <v>1.04825106648198</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038083966138442</v>
+        <v>1.03267265708301</v>
       </c>
       <c r="J15">
-        <v>1.009754301587513</v>
+        <v>1.033807668391342</v>
       </c>
       <c r="K15">
-        <v>1.018017591295465</v>
+        <v>1.035297962032349</v>
       </c>
       <c r="L15">
-        <v>1.013419280166028</v>
+        <v>1.044419586515633</v>
       </c>
       <c r="M15">
-        <v>1.017905134647374</v>
+        <v>1.051757772403144</v>
       </c>
       <c r="N15">
-        <v>1.006953478199029</v>
+        <v>1.015224520877973</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9827573538317422</v>
+        <v>1.027802581166361</v>
       </c>
       <c r="D16">
-        <v>1.005432321176637</v>
+        <v>1.032163810412278</v>
       </c>
       <c r="E16">
-        <v>1.001363895763713</v>
+        <v>1.041465481340782</v>
       </c>
       <c r="F16">
-        <v>1.006153147324213</v>
+        <v>1.048876390200191</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038828614292862</v>
+        <v>1.032772918170602</v>
       </c>
       <c r="J16">
-        <v>1.011593151871475</v>
+        <v>1.034176136420579</v>
       </c>
       <c r="K16">
-        <v>1.019667789639302</v>
+        <v>1.035615051106765</v>
       </c>
       <c r="L16">
-        <v>1.015671962762192</v>
+        <v>1.044883627818974</v>
       </c>
       <c r="M16">
-        <v>1.020375832516196</v>
+        <v>1.052268632261114</v>
       </c>
       <c r="N16">
-        <v>1.007579645834806</v>
+        <v>1.01534868903166</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9846713337113715</v>
+        <v>1.028172602642593</v>
       </c>
       <c r="D17">
-        <v>1.006798836524185</v>
+        <v>1.03243548882958</v>
       </c>
       <c r="E17">
-        <v>1.003113854983058</v>
+        <v>1.041829142064125</v>
       </c>
       <c r="F17">
-        <v>1.008037996301108</v>
+        <v>1.049268948174727</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039286701338661</v>
+        <v>1.032835406596262</v>
       </c>
       <c r="J17">
-        <v>1.012731587028784</v>
+        <v>1.034407238944334</v>
       </c>
       <c r="K17">
-        <v>1.020688698477302</v>
+        <v>1.035813798785288</v>
       </c>
       <c r="L17">
-        <v>1.017067506437613</v>
+        <v>1.045174792788958</v>
       </c>
       <c r="M17">
-        <v>1.021906543015499</v>
+        <v>1.052589188916965</v>
       </c>
       <c r="N17">
-        <v>1.007967245654744</v>
+        <v>1.015426543769712</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9857790980050373</v>
+        <v>1.028388490957943</v>
       </c>
       <c r="D18">
-        <v>1.007590176868685</v>
+        <v>1.032593979169675</v>
       </c>
       <c r="E18">
-        <v>1.004127486863113</v>
+        <v>1.042041363532879</v>
       </c>
       <c r="F18">
-        <v>1.00912969075078</v>
+        <v>1.049498031566451</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039550704260356</v>
+        <v>1.032871709752689</v>
       </c>
       <c r="J18">
-        <v>1.013390332317581</v>
+        <v>1.034542026870204</v>
       </c>
       <c r="K18">
-        <v>1.021279167644692</v>
+        <v>1.035929669170587</v>
       </c>
       <c r="L18">
-        <v>1.017875352826433</v>
+        <v>1.045344654389452</v>
       </c>
       <c r="M18">
-        <v>1.022792672956288</v>
+        <v>1.052776202695727</v>
       </c>
       <c r="N18">
-        <v>1.008191503018824</v>
+        <v>1.015471943237646</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9861553758274377</v>
+        <v>1.028462113625177</v>
       </c>
       <c r="D19">
-        <v>1.00785904520234</v>
+        <v>1.032648024465161</v>
       </c>
       <c r="E19">
-        <v>1.004471924353793</v>
+        <v>1.042113743228668</v>
       </c>
       <c r="F19">
-        <v>1.009500642744348</v>
+        <v>1.049576161870249</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039640186250113</v>
+        <v>1.032884063533294</v>
       </c>
       <c r="J19">
-        <v>1.013614063109791</v>
+        <v>1.034587984302764</v>
       </c>
       <c r="K19">
-        <v>1.021479663129482</v>
+        <v>1.03596916848894</v>
       </c>
       <c r="L19">
-        <v>1.01814977884186</v>
+        <v>1.045402577864166</v>
       </c>
       <c r="M19">
-        <v>1.023093698592767</v>
+        <v>1.052839976061135</v>
       </c>
       <c r="N19">
-        <v>1.00826766374306</v>
+        <v>1.01548742125674</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9844668795275698</v>
+        <v>1.028132896519714</v>
       </c>
       <c r="D20">
-        <v>1.006652817577631</v>
+        <v>1.032406337719675</v>
       </c>
       <c r="E20">
-        <v>1.002926838497323</v>
+        <v>1.041790113911236</v>
       </c>
       <c r="F20">
-        <v>1.007836571585995</v>
+        <v>1.049226818933116</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03923788428015</v>
+        <v>1.032828717203581</v>
       </c>
       <c r="J20">
-        <v>1.012609993215452</v>
+        <v>1.034382444886453</v>
       </c>
       <c r="K20">
-        <v>1.020579685308799</v>
+        <v>1.035792480802366</v>
       </c>
       <c r="L20">
-        <v>1.016918417476956</v>
+        <v>1.045143550433102</v>
       </c>
       <c r="M20">
-        <v>1.021743009885067</v>
+        <v>1.052554792231291</v>
       </c>
       <c r="N20">
-        <v>1.007925849382828</v>
+        <v>1.015418191919782</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9788743085151849</v>
+        <v>1.027063299190413</v>
       </c>
       <c r="D21">
-        <v>1.002662992665493</v>
+        <v>1.031620886608999</v>
       </c>
       <c r="E21">
-        <v>0.9978189311177998</v>
+        <v>1.040739192457369</v>
       </c>
       <c r="F21">
-        <v>1.002334455371202</v>
+        <v>1.048092378054869</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037892057438007</v>
+        <v>1.032647074454319</v>
       </c>
       <c r="J21">
-        <v>1.009282632098181</v>
+        <v>1.033714097605904</v>
       </c>
       <c r="K21">
-        <v>1.017594088859325</v>
+        <v>1.03521739865475</v>
       </c>
       <c r="L21">
-        <v>1.012841742669107</v>
+        <v>1.044301782019703</v>
       </c>
       <c r="M21">
-        <v>1.017271735340216</v>
+        <v>1.051628086909402</v>
       </c>
       <c r="N21">
-        <v>1.006792846826997</v>
+        <v>1.015192981765159</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9752750013773126</v>
+        <v>1.026391356367238</v>
       </c>
       <c r="D22">
-        <v>1.000099815781384</v>
+        <v>1.031127276028668</v>
       </c>
       <c r="E22">
-        <v>0.9945392877595036</v>
+        <v>1.04007938429975</v>
       </c>
       <c r="F22">
-        <v>0.9988009926433915</v>
+        <v>1.047380117593882</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037015903042317</v>
+        <v>1.032531562916695</v>
       </c>
       <c r="J22">
-        <v>1.007140108320479</v>
+        <v>1.033293794453308</v>
       </c>
       <c r="K22">
-        <v>1.015669295560972</v>
+        <v>1.034855325701058</v>
       </c>
       <c r="L22">
-        <v>1.010219704196038</v>
+        <v>1.04377280584878</v>
       </c>
       <c r="M22">
-        <v>1.014396239582809</v>
+        <v>1.051045784491543</v>
       </c>
       <c r="N22">
-        <v>1.00606311085162</v>
+        <v>1.015051278538647</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9771912014682996</v>
+        <v>1.026747513052124</v>
       </c>
       <c r="D23">
-        <v>1.001463934639643</v>
+        <v>1.031388925735975</v>
       </c>
       <c r="E23">
-        <v>0.9962845572561297</v>
+        <v>1.040429070850319</v>
       </c>
       <c r="F23">
-        <v>1.000681402806491</v>
+        <v>1.047757604455672</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037483272797368</v>
+        <v>1.032592921355573</v>
       </c>
       <c r="J23">
-        <v>1.008280830602207</v>
+        <v>1.033516613042668</v>
       </c>
       <c r="K23">
-        <v>1.01669430586441</v>
+        <v>1.035047314123745</v>
       </c>
       <c r="L23">
-        <v>1.011615451468078</v>
+        <v>1.044053199536341</v>
       </c>
       <c r="M23">
-        <v>1.015926874226687</v>
+        <v>1.051354440120367</v>
       </c>
       <c r="N23">
-        <v>1.006451652306367</v>
+        <v>1.015126407904893</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9845592901795439</v>
+        <v>1.028150837818913</v>
       </c>
       <c r="D24">
-        <v>1.006718814914583</v>
+        <v>1.032419509774598</v>
       </c>
       <c r="E24">
-        <v>1.003011365062637</v>
+        <v>1.04180774873134</v>
       </c>
       <c r="F24">
-        <v>1.00792761051033</v>
+        <v>1.049245854981183</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039259952457434</v>
+        <v>1.03283174030114</v>
       </c>
       <c r="J24">
-        <v>1.012664952527091</v>
+        <v>1.034393648285747</v>
       </c>
       <c r="K24">
-        <v>1.020628959122664</v>
+        <v>1.035802113653638</v>
       </c>
       <c r="L24">
-        <v>1.016985803332082</v>
+        <v>1.045157667416283</v>
       </c>
       <c r="M24">
-        <v>1.021816924156444</v>
+        <v>1.052570334494061</v>
       </c>
       <c r="N24">
-        <v>1.007944560200141</v>
+        <v>1.015421965798014</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9927733684219106</v>
+        <v>1.029781710011505</v>
       </c>
       <c r="D25">
-        <v>1.012593548150404</v>
+        <v>1.033616417689152</v>
       </c>
       <c r="E25">
-        <v>1.010541158864085</v>
+        <v>1.043411715748119</v>
       </c>
       <c r="F25">
-        <v>1.016036137334295</v>
+        <v>1.050977235736923</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041197021316289</v>
+        <v>1.033103175387575</v>
       </c>
       <c r="J25">
-        <v>1.017546409344229</v>
+        <v>1.035410993073119</v>
       </c>
       <c r="K25">
-        <v>1.024999461222452</v>
+        <v>1.036675825200942</v>
       </c>
       <c r="L25">
-        <v>1.022978011467163</v>
+        <v>1.046440514158046</v>
       </c>
       <c r="M25">
-        <v>1.028390510741434</v>
+        <v>1.053982818945374</v>
       </c>
       <c r="N25">
-        <v>1.009605889775973</v>
+        <v>1.015764476842926</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_211/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_211/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.031084389381527</v>
+        <v>0.9990790801747944</v>
       </c>
       <c r="D2">
-        <v>1.034571803276337</v>
+        <v>1.017113734455469</v>
       </c>
       <c r="E2">
-        <v>1.044694289852873</v>
+        <v>1.016344314429638</v>
       </c>
       <c r="F2">
-        <v>1.052361646099872</v>
+        <v>1.02228349570467</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033315055699082</v>
+        <v>1.042647340160492</v>
       </c>
       <c r="J2">
-        <v>1.03622206645256</v>
+        <v>1.021287370728312</v>
       </c>
       <c r="K2">
-        <v>1.037370893434816</v>
+        <v>1.028339687250133</v>
       </c>
       <c r="L2">
-        <v>1.047464619512056</v>
+        <v>1.027580547917183</v>
       </c>
       <c r="M2">
-        <v>1.055110590174108</v>
+        <v>1.033440875445522</v>
       </c>
       <c r="N2">
-        <v>1.016037272982404</v>
+        <v>1.010878147219871</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.032031339333612</v>
+        <v>1.003526397563397</v>
       </c>
       <c r="D3">
-        <v>1.035265900666878</v>
+        <v>1.020306397996391</v>
       </c>
       <c r="E3">
-        <v>1.045627420191635</v>
+        <v>1.020449557952777</v>
       </c>
       <c r="F3">
-        <v>1.053368841898299</v>
+        <v>1.026702065236246</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03346621364555</v>
+        <v>1.043648120753949</v>
       </c>
       <c r="J3">
-        <v>1.036810755430282</v>
+        <v>1.023921388885468</v>
       </c>
       <c r="K3">
-        <v>1.037874512993238</v>
+        <v>1.030685883799907</v>
       </c>
       <c r="L3">
-        <v>1.048208721972835</v>
+        <v>1.030827301820055</v>
       </c>
       <c r="M3">
-        <v>1.055930117490809</v>
+        <v>1.037004318075338</v>
       </c>
       <c r="N3">
-        <v>1.016235114999597</v>
+        <v>1.011773328560292</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.032644579077515</v>
+        <v>1.00634686022393</v>
       </c>
       <c r="D4">
-        <v>1.035715206614894</v>
+        <v>1.022332907817492</v>
       </c>
       <c r="E4">
-        <v>1.046232075728952</v>
+        <v>1.023058565454189</v>
       </c>
       <c r="F4">
-        <v>1.054021480037969</v>
+        <v>1.029509824588618</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033562777048991</v>
+        <v>1.044272300406125</v>
       </c>
       <c r="J4">
-        <v>1.037191568911506</v>
+        <v>1.02558959437632</v>
       </c>
       <c r="K4">
-        <v>1.038199891739502</v>
+        <v>1.032169063929551</v>
       </c>
       <c r="L4">
-        <v>1.048690437003006</v>
+        <v>1.032886436753421</v>
       </c>
       <c r="M4">
-        <v>1.056460708583385</v>
+        <v>1.039264674483064</v>
       </c>
       <c r="N4">
-        <v>1.016363022542629</v>
+        <v>1.012339961526178</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.032902503819663</v>
+        <v>1.00751935995005</v>
       </c>
       <c r="D5">
-        <v>1.035904136199157</v>
+        <v>1.023175711258098</v>
       </c>
       <c r="E5">
-        <v>1.046486477049537</v>
+        <v>1.024144443614931</v>
       </c>
       <c r="F5">
-        <v>1.054296066977003</v>
+        <v>1.030678340065905</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.033603073512884</v>
+        <v>1.044529216636382</v>
       </c>
       <c r="J5">
-        <v>1.037351636228308</v>
+        <v>1.026282508978056</v>
       </c>
       <c r="K5">
-        <v>1.038336561044863</v>
+        <v>1.032784450693292</v>
       </c>
       <c r="L5">
-        <v>1.048893004252951</v>
+        <v>1.033742423989597</v>
       </c>
       <c r="M5">
-        <v>1.056683840304656</v>
+        <v>1.040204401462563</v>
       </c>
       <c r="N5">
-        <v>1.016416768299908</v>
+        <v>1.012575241983586</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.032945817456509</v>
+        <v>1.007715466021217</v>
       </c>
       <c r="D6">
-        <v>1.035935860693274</v>
+        <v>1.023316693536368</v>
       </c>
       <c r="E6">
-        <v>1.046529204085442</v>
+        <v>1.024326136286483</v>
       </c>
       <c r="F6">
-        <v>1.054342184072811</v>
+        <v>1.030873855133228</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03360982193012</v>
+        <v>1.044572035261327</v>
       </c>
       <c r="J6">
-        <v>1.037378510645054</v>
+        <v>1.026398367269807</v>
       </c>
       <c r="K6">
-        <v>1.038359501361739</v>
+        <v>1.032887305823948</v>
       </c>
       <c r="L6">
-        <v>1.048927019336508</v>
+        <v>1.033885589731864</v>
       </c>
       <c r="M6">
-        <v>1.056721309247235</v>
+        <v>1.040361578296453</v>
       </c>
       <c r="N6">
-        <v>1.016425790880104</v>
+        <v>1.012614577111844</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.032648025015039</v>
+        <v>1.006362578556706</v>
       </c>
       <c r="D7">
-        <v>1.035717730940444</v>
+        <v>1.022344204954271</v>
       </c>
       <c r="E7">
-        <v>1.046235474251285</v>
+        <v>1.023073117528994</v>
       </c>
       <c r="F7">
-        <v>1.054025148227543</v>
+        <v>1.029525484425934</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033563316667006</v>
+        <v>1.044275754757163</v>
       </c>
       <c r="J7">
-        <v>1.03719370784475</v>
+        <v>1.025598885798308</v>
       </c>
       <c r="K7">
-        <v>1.038201718393891</v>
+        <v>1.032177318455251</v>
       </c>
       <c r="L7">
-        <v>1.048693143504653</v>
+        <v>1.032897912095292</v>
       </c>
       <c r="M7">
-        <v>1.056463689801875</v>
+        <v>1.039277272073667</v>
       </c>
       <c r="N7">
-        <v>1.016363740800944</v>
+        <v>1.012343116764225</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.031404311521107</v>
+        <v>1.000594224033457</v>
       </c>
       <c r="D8">
-        <v>1.034806338948401</v>
+        <v>1.018201032531395</v>
       </c>
       <c r="E8">
-        <v>1.04500946726468</v>
+        <v>1.017741747198055</v>
       </c>
       <c r="F8">
-        <v>1.052701842425667</v>
+        <v>1.023787668002092</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033366397892203</v>
+        <v>1.042990470995243</v>
       </c>
       <c r="J8">
-        <v>1.036421038398252</v>
+        <v>1.022185203146522</v>
       </c>
       <c r="K8">
-        <v>1.037541196290638</v>
+        <v>1.029139976597175</v>
       </c>
       <c r="L8">
-        <v>1.047716043966893</v>
+        <v>1.028686640626201</v>
       </c>
       <c r="M8">
-        <v>1.055387490049074</v>
+        <v>1.034654779507846</v>
       </c>
       <c r="N8">
-        <v>1.01610415706509</v>
+        <v>1.011183342294154</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.02921659709744</v>
+        <v>0.9899682361304529</v>
       </c>
       <c r="D9">
-        <v>1.03320177774685</v>
+        <v>1.010585491648925</v>
       </c>
       <c r="E9">
-        <v>1.042855710389526</v>
+        <v>1.00796600703519</v>
       </c>
       <c r="F9">
-        <v>1.050377070773014</v>
+        <v>1.013263369282485</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033009882795446</v>
+        <v>1.040541180918774</v>
       </c>
       <c r="J9">
-        <v>1.035058711278959</v>
+        <v>1.015880284059884</v>
       </c>
       <c r="K9">
-        <v>1.036373510786681</v>
+        <v>1.023509129888204</v>
       </c>
       <c r="L9">
-        <v>1.045996084958714</v>
+        <v>1.020931150059653</v>
       </c>
       <c r="M9">
-        <v>1.053493451096408</v>
+        <v>1.026144861296495</v>
       </c>
       <c r="N9">
-        <v>1.015645915080208</v>
+        <v>1.009038983324629</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.027760773457715</v>
+        <v>0.9825398710327494</v>
       </c>
       <c r="D10">
-        <v>1.032133111539323</v>
+        <v>1.005277107268148</v>
       </c>
       <c r="E10">
-        <v>1.041424398322164</v>
+        <v>1.001165160480352</v>
       </c>
       <c r="F10">
-        <v>1.048832042412607</v>
+        <v>1.005939083465495</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032765836730465</v>
+        <v>1.038776410223392</v>
       </c>
       <c r="J10">
-        <v>1.034150018242054</v>
+        <v>1.011463773351499</v>
       </c>
       <c r="K10">
-        <v>1.035592583182028</v>
+        <v>1.019551731141359</v>
       </c>
       <c r="L10">
-        <v>1.044850727457591</v>
+        <v>1.01551340941401</v>
       </c>
       <c r="M10">
-        <v>1.052232411508335</v>
+        <v>1.020201927550286</v>
       </c>
       <c r="N10">
-        <v>1.015339889097257</v>
+        <v>1.007535593567917</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.027131025493093</v>
+        <v>0.9792333581497297</v>
       </c>
       <c r="D11">
-        <v>1.031670631184579</v>
+        <v>1.002918886379728</v>
       </c>
       <c r="E11">
-        <v>1.040805712778696</v>
+        <v>0.9981464229850481</v>
       </c>
       <c r="F11">
-        <v>1.048164185817913</v>
+        <v>1.002687261811543</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032658657740583</v>
+        <v>1.037979045635368</v>
       </c>
       <c r="J11">
-        <v>1.033756442344173</v>
+        <v>1.009496320168259</v>
       </c>
       <c r="K11">
-        <v>1.035253858983977</v>
+        <v>1.017785965914328</v>
       </c>
       <c r="L11">
-        <v>1.044355091709872</v>
+        <v>1.013103379915376</v>
       </c>
       <c r="M11">
-        <v>1.051686772837523</v>
+        <v>1.017558677625216</v>
       </c>
       <c r="N11">
-        <v>1.015207254904583</v>
+        <v>1.006865621107082</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.026897204998263</v>
+        <v>0.9779908921908981</v>
       </c>
       <c r="D12">
-        <v>1.031498885668204</v>
+        <v>1.002033539441887</v>
       </c>
       <c r="E12">
-        <v>1.040576069150937</v>
+        <v>0.9970134163950337</v>
       </c>
       <c r="F12">
-        <v>1.04791628818866</v>
+        <v>1.001466652054537</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032618621001624</v>
+        <v>1.037677703865288</v>
       </c>
       <c r="J12">
-        <v>1.033610235675869</v>
+        <v>1.008756834398362</v>
       </c>
       <c r="K12">
-        <v>1.035127955928886</v>
+        <v>1.017121883472266</v>
       </c>
       <c r="L12">
-        <v>1.044171038324247</v>
+        <v>1.012198059187762</v>
       </c>
       <c r="M12">
-        <v>1.051484159437166</v>
+        <v>1.016565807165589</v>
       </c>
       <c r="N12">
-        <v>1.015157970540023</v>
+        <v>1.006613773721665</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.026947355933865</v>
+        <v>0.9782580643625414</v>
       </c>
       <c r="D13">
-        <v>1.031535723820203</v>
+        <v>1.002223882000253</v>
       </c>
       <c r="E13">
-        <v>1.040625321060734</v>
+        <v>0.997256990388521</v>
       </c>
       <c r="F13">
-        <v>1.047969455177351</v>
+        <v>1.001729064617715</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032627219223194</v>
+        <v>1.037742579388217</v>
       </c>
       <c r="J13">
-        <v>1.033641598170308</v>
+        <v>1.008915856590559</v>
       </c>
       <c r="K13">
-        <v>1.035154966429401</v>
+        <v>1.017264708438254</v>
       </c>
       <c r="L13">
-        <v>1.044210516221417</v>
+        <v>1.012392720234827</v>
       </c>
       <c r="M13">
-        <v>1.051527617917981</v>
+        <v>1.016779290434302</v>
       </c>
       <c r="N13">
-        <v>1.015168543017898</v>
+        <v>1.006667933422179</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.027111695856304</v>
+        <v>0.9791309514214196</v>
       </c>
       <c r="D14">
-        <v>1.031656433817173</v>
+        <v>1.002845897680889</v>
       </c>
       <c r="E14">
-        <v>1.040786727017981</v>
+        <v>0.998053010902538</v>
       </c>
       <c r="F14">
-        <v>1.048143690965451</v>
+        <v>1.002586629696745</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03265535289245</v>
+        <v>1.037954243057088</v>
       </c>
       <c r="J14">
-        <v>1.033744357157621</v>
+        <v>1.009435373717118</v>
       </c>
       <c r="K14">
-        <v>1.035243453543148</v>
+        <v>1.017731242060138</v>
       </c>
       <c r="L14">
-        <v>1.044339876818812</v>
+        <v>1.013028755429023</v>
       </c>
       <c r="M14">
-        <v>1.051670023498312</v>
+        <v>1.017476835337355</v>
       </c>
       <c r="N14">
-        <v>1.015203181411262</v>
+        <v>1.006844865133962</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.02721296384314</v>
+        <v>0.9796668500568381</v>
       </c>
       <c r="D15">
-        <v>1.031730812607777</v>
+        <v>1.003227883116009</v>
       </c>
       <c r="E15">
-        <v>1.040886196286103</v>
+        <v>0.998541894481306</v>
       </c>
       <c r="F15">
-        <v>1.04825106648198</v>
+        <v>1.003113295209318</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03267265708301</v>
+        <v>1.038083966138442</v>
       </c>
       <c r="J15">
-        <v>1.033807668391342</v>
+        <v>1.009754301587513</v>
       </c>
       <c r="K15">
-        <v>1.035297962032349</v>
+        <v>1.018017591295466</v>
       </c>
       <c r="L15">
-        <v>1.044419586515633</v>
+        <v>1.013419280166029</v>
       </c>
       <c r="M15">
-        <v>1.051757772403144</v>
+        <v>1.017905134647375</v>
       </c>
       <c r="N15">
-        <v>1.015224520877973</v>
+        <v>1.006953478199029</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.027802581166361</v>
+        <v>0.9827573538317421</v>
       </c>
       <c r="D16">
-        <v>1.032163810412278</v>
+        <v>1.005432321176637</v>
       </c>
       <c r="E16">
-        <v>1.041465481340782</v>
+        <v>1.001363895763714</v>
       </c>
       <c r="F16">
-        <v>1.048876390200191</v>
+        <v>1.006153147324213</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032772918170602</v>
+        <v>1.038828614292862</v>
       </c>
       <c r="J16">
-        <v>1.034176136420579</v>
+        <v>1.011593151871475</v>
       </c>
       <c r="K16">
-        <v>1.035615051106765</v>
+        <v>1.019667789639302</v>
       </c>
       <c r="L16">
-        <v>1.044883627818974</v>
+        <v>1.015671962762192</v>
       </c>
       <c r="M16">
-        <v>1.052268632261114</v>
+        <v>1.020375832516196</v>
       </c>
       <c r="N16">
-        <v>1.01534868903166</v>
+        <v>1.007579645834806</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.028172602642593</v>
+        <v>0.9846713337113716</v>
       </c>
       <c r="D17">
-        <v>1.03243548882958</v>
+        <v>1.006798836524185</v>
       </c>
       <c r="E17">
-        <v>1.041829142064125</v>
+        <v>1.003113854983058</v>
       </c>
       <c r="F17">
-        <v>1.049268948174727</v>
+        <v>1.008037996301108</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032835406596262</v>
+        <v>1.039286701338661</v>
       </c>
       <c r="J17">
-        <v>1.034407238944334</v>
+        <v>1.012731587028784</v>
       </c>
       <c r="K17">
-        <v>1.035813798785288</v>
+        <v>1.020688698477302</v>
       </c>
       <c r="L17">
-        <v>1.045174792788958</v>
+        <v>1.017067506437614</v>
       </c>
       <c r="M17">
-        <v>1.052589188916965</v>
+        <v>1.0219065430155</v>
       </c>
       <c r="N17">
-        <v>1.015426543769712</v>
+        <v>1.007967245654744</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.028388490957943</v>
+        <v>0.9857790980050378</v>
       </c>
       <c r="D18">
-        <v>1.032593979169675</v>
+        <v>1.007590176868686</v>
       </c>
       <c r="E18">
-        <v>1.042041363532879</v>
+        <v>1.004127486863113</v>
       </c>
       <c r="F18">
-        <v>1.049498031566451</v>
+        <v>1.009129690750781</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032871709752689</v>
+        <v>1.039550704260356</v>
       </c>
       <c r="J18">
-        <v>1.034542026870204</v>
+        <v>1.013390332317581</v>
       </c>
       <c r="K18">
-        <v>1.035929669170587</v>
+        <v>1.021279167644693</v>
       </c>
       <c r="L18">
-        <v>1.045344654389452</v>
+        <v>1.017875352826434</v>
       </c>
       <c r="M18">
-        <v>1.052776202695727</v>
+        <v>1.022792672956288</v>
       </c>
       <c r="N18">
-        <v>1.015471943237646</v>
+        <v>1.008191503018824</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.028462113625177</v>
+        <v>0.9861553758274373</v>
       </c>
       <c r="D19">
-        <v>1.032648024465161</v>
+        <v>1.007859045202339</v>
       </c>
       <c r="E19">
-        <v>1.042113743228668</v>
+        <v>1.004471924353793</v>
       </c>
       <c r="F19">
-        <v>1.049576161870249</v>
+        <v>1.009500642744347</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032884063533294</v>
+        <v>1.039640186250113</v>
       </c>
       <c r="J19">
-        <v>1.034587984302764</v>
+        <v>1.01361406310979</v>
       </c>
       <c r="K19">
-        <v>1.03596916848894</v>
+        <v>1.021479663129482</v>
       </c>
       <c r="L19">
-        <v>1.045402577864166</v>
+        <v>1.01814977884186</v>
       </c>
       <c r="M19">
-        <v>1.052839976061135</v>
+        <v>1.023093698592766</v>
       </c>
       <c r="N19">
-        <v>1.01548742125674</v>
+        <v>1.008267663743059</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.028132896519714</v>
+        <v>0.9844668795275703</v>
       </c>
       <c r="D20">
-        <v>1.032406337719675</v>
+        <v>1.006652817577632</v>
       </c>
       <c r="E20">
-        <v>1.041790113911236</v>
+        <v>1.002926838497323</v>
       </c>
       <c r="F20">
-        <v>1.049226818933116</v>
+        <v>1.007836571585995</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032828717203581</v>
+        <v>1.03923788428015</v>
       </c>
       <c r="J20">
-        <v>1.034382444886453</v>
+        <v>1.012609993215452</v>
       </c>
       <c r="K20">
-        <v>1.035792480802366</v>
+        <v>1.020579685308799</v>
       </c>
       <c r="L20">
-        <v>1.045143550433102</v>
+        <v>1.016918417476957</v>
       </c>
       <c r="M20">
-        <v>1.052554792231291</v>
+        <v>1.021743009885067</v>
       </c>
       <c r="N20">
-        <v>1.015418191919782</v>
+        <v>1.007925849382828</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.027063299190413</v>
+        <v>0.978874308515185</v>
       </c>
       <c r="D21">
-        <v>1.031620886608999</v>
+        <v>1.002662992665492</v>
       </c>
       <c r="E21">
-        <v>1.040739192457369</v>
+        <v>0.9978189311178002</v>
       </c>
       <c r="F21">
-        <v>1.048092378054869</v>
+        <v>1.002334455371202</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032647074454319</v>
+        <v>1.037892057438007</v>
       </c>
       <c r="J21">
-        <v>1.033714097605904</v>
+        <v>1.009282632098182</v>
       </c>
       <c r="K21">
-        <v>1.03521739865475</v>
+        <v>1.017594088859325</v>
       </c>
       <c r="L21">
-        <v>1.044301782019703</v>
+        <v>1.012841742669107</v>
       </c>
       <c r="M21">
-        <v>1.051628086909402</v>
+        <v>1.017271735340216</v>
       </c>
       <c r="N21">
-        <v>1.015192981765159</v>
+        <v>1.006792846826997</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.026391356367238</v>
+        <v>0.9752750013773128</v>
       </c>
       <c r="D22">
-        <v>1.031127276028668</v>
+        <v>1.000099815781384</v>
       </c>
       <c r="E22">
-        <v>1.04007938429975</v>
+        <v>0.994539287759504</v>
       </c>
       <c r="F22">
-        <v>1.047380117593882</v>
+        <v>0.9988009926433919</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032531562916695</v>
+        <v>1.037015903042317</v>
       </c>
       <c r="J22">
-        <v>1.033293794453308</v>
+        <v>1.007140108320479</v>
       </c>
       <c r="K22">
-        <v>1.034855325701058</v>
+        <v>1.015669295560972</v>
       </c>
       <c r="L22">
-        <v>1.04377280584878</v>
+        <v>1.010219704196038</v>
       </c>
       <c r="M22">
-        <v>1.051045784491543</v>
+        <v>1.014396239582809</v>
       </c>
       <c r="N22">
-        <v>1.015051278538647</v>
+        <v>1.00606311085162</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.026747513052124</v>
+        <v>0.9771912014683003</v>
       </c>
       <c r="D23">
-        <v>1.031388925735975</v>
+        <v>1.001463934639643</v>
       </c>
       <c r="E23">
-        <v>1.040429070850319</v>
+        <v>0.9962845572561303</v>
       </c>
       <c r="F23">
-        <v>1.047757604455672</v>
+        <v>1.000681402806491</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032592921355573</v>
+        <v>1.037483272797368</v>
       </c>
       <c r="J23">
-        <v>1.033516613042668</v>
+        <v>1.008280830602207</v>
       </c>
       <c r="K23">
-        <v>1.035047314123745</v>
+        <v>1.01669430586441</v>
       </c>
       <c r="L23">
-        <v>1.044053199536341</v>
+        <v>1.011615451468079</v>
       </c>
       <c r="M23">
-        <v>1.051354440120367</v>
+        <v>1.015926874226688</v>
       </c>
       <c r="N23">
-        <v>1.015126407904893</v>
+        <v>1.006451652306367</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.028150837818913</v>
+        <v>0.9845592901795441</v>
       </c>
       <c r="D24">
-        <v>1.032419509774598</v>
+        <v>1.006718814914583</v>
       </c>
       <c r="E24">
-        <v>1.04180774873134</v>
+        <v>1.003011365062637</v>
       </c>
       <c r="F24">
-        <v>1.049245854981183</v>
+        <v>1.00792761051033</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03283174030114</v>
+        <v>1.039259952457434</v>
       </c>
       <c r="J24">
-        <v>1.034393648285747</v>
+        <v>1.012664952527091</v>
       </c>
       <c r="K24">
-        <v>1.035802113653638</v>
+        <v>1.020628959122664</v>
       </c>
       <c r="L24">
-        <v>1.045157667416283</v>
+        <v>1.016985803332082</v>
       </c>
       <c r="M24">
-        <v>1.052570334494061</v>
+        <v>1.021816924156444</v>
       </c>
       <c r="N24">
-        <v>1.015421965798014</v>
+        <v>1.007944560200141</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.029781710011505</v>
+        <v>0.9927733684219111</v>
       </c>
       <c r="D25">
-        <v>1.033616417689152</v>
+        <v>1.012593548150405</v>
       </c>
       <c r="E25">
-        <v>1.043411715748119</v>
+        <v>1.010541158864086</v>
       </c>
       <c r="F25">
-        <v>1.050977235736923</v>
+        <v>1.016036137334296</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033103175387575</v>
+        <v>1.041197021316289</v>
       </c>
       <c r="J25">
-        <v>1.035410993073119</v>
+        <v>1.01754640934423</v>
       </c>
       <c r="K25">
-        <v>1.036675825200942</v>
+        <v>1.024999461222453</v>
       </c>
       <c r="L25">
-        <v>1.046440514158046</v>
+        <v>1.022978011467164</v>
       </c>
       <c r="M25">
-        <v>1.053982818945374</v>
+        <v>1.028390510741435</v>
       </c>
       <c r="N25">
-        <v>1.015764476842926</v>
+        <v>1.009605889775974</v>
       </c>
     </row>
   </sheetData>
